--- a/ONKUTFEL2/2020_hamminghez.xlsx
+++ b/ONKUTFEL2/2020_hamminghez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\ONKUTFEL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA571FD-C482-46DF-97F7-95360EAD1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670EDFD-F6F5-45B0-ACD3-B25D9E929092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="374">
   <si>
     <t>...1</t>
   </si>
@@ -1531,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS101"/>
+  <dimension ref="A1:BS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13366,97 +13366,97 @@
     </row>
     <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>91</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I56">
-        <v>2902</v>
+        <v>4183</v>
       </c>
       <c r="J56">
-        <v>5400</v>
+        <v>4203</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>0.8571428571428571</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>24.76</v>
+        <v>31.67</v>
       </c>
       <c r="Q56">
-        <v>0.37515151515151512</v>
+        <v>0.47984848484848491</v>
       </c>
       <c r="R56">
-        <v>0.61614718614718611</v>
+        <v>0.41849567099567098</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="V56">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W56">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="X56">
         <v>100</v>
       </c>
       <c r="Y56">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="Z56">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -13474,13 +13474,13 @@
         <v>0</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -13492,34 +13492,34 @@
         <v>0</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>0</v>
       </c>
       <c r="AV56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56">
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -13531,22 +13531,22 @@
         <v>0</v>
       </c>
       <c r="BD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ56">
         <v>0</v>
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="BN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO56">
         <v>0</v>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="BQ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR56">
         <v>0</v>
@@ -13581,13 +13581,13 @@
     </row>
     <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -13596,43 +13596,43 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I57">
-        <v>4183</v>
+        <v>6760</v>
       </c>
       <c r="J57">
-        <v>4203</v>
+        <v>4983</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>0.35714285714285721</v>
+        <v>0.5</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57">
-        <v>31.67</v>
+        <v>29.6</v>
       </c>
       <c r="Q57">
-        <v>0.47984848484848491</v>
+        <v>0.44848484848484849</v>
       </c>
       <c r="R57">
-        <v>0.41849567099567098</v>
+        <v>0.47424242424242419</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -13641,19 +13641,19 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V57">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="W57">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="X57">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="Y57">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Z57">
         <v>86</v>
@@ -13668,28 +13668,28 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57">
         <v>1</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57">
         <v>0</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57">
         <v>0</v>
       </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>0</v>
@@ -13701,13 +13701,13 @@
         <v>0</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP57">
         <v>0</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57">
         <v>0</v>
@@ -13734,31 +13734,31 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57">
         <v>0</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57">
         <v>0</v>
       </c>
       <c r="BD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57">
         <v>1</v>
       </c>
       <c r="BH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI57">
         <v>1</v>
@@ -13773,10 +13773,10 @@
         <v>0</v>
       </c>
       <c r="BM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="BQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR57">
         <v>0</v>
@@ -13796,58 +13796,58 @@
     </row>
     <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I58">
-        <v>6760</v>
+        <v>5000</v>
       </c>
       <c r="J58">
-        <v>4983</v>
+        <v>4904</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>2</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>29.6</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="Q58">
-        <v>0.44848484848484849</v>
+        <v>0.49106060606060598</v>
       </c>
       <c r="R58">
-        <v>0.47424242424242419</v>
+        <v>0.38838744588744589</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -13856,40 +13856,40 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V58">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="W58">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="X58">
         <v>78</v>
       </c>
       <c r="Y58">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="Z58">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="AA58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -13910,13 +13910,13 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP58">
         <v>0</v>
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -13943,10 +13943,10 @@
         <v>1</v>
       </c>
       <c r="AX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="BB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="BE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF58">
         <v>0</v>
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="BK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL58">
         <v>0</v>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="BO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP58">
         <v>0</v>
@@ -14011,58 +14011,58 @@
     </row>
     <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I59">
-        <v>5000</v>
+        <v>2040</v>
       </c>
       <c r="J59">
-        <v>4904</v>
+        <v>3376</v>
       </c>
       <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="M59">
         <v>4</v>
       </c>
-      <c r="L59">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59">
-        <v>32.409999999999997</v>
+        <v>30.1</v>
       </c>
       <c r="Q59">
-        <v>0.49106060606060598</v>
+        <v>0.45606060606060611</v>
       </c>
       <c r="R59">
-        <v>0.38838744588744589</v>
+        <v>0.44231601731601727</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -14071,46 +14071,46 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="V59">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W59">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="X59">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="Y59">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="Z59">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59">
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59">
         <v>1</v>
@@ -14125,16 +14125,16 @@
         <v>0</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO59">
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="AU59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV59">
         <v>1</v>
@@ -14161,19 +14161,19 @@
         <v>0</v>
       </c>
       <c r="AY59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59">
         <v>0</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59">
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59">
         <v>0</v>
@@ -14182,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="BF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG59">
         <v>1</v>
@@ -14197,19 +14197,19 @@
         <v>0</v>
       </c>
       <c r="BK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59">
         <v>0</v>
       </c>
       <c r="BM59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59">
         <v>0</v>
       </c>
       <c r="BO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP59">
         <v>0</v>
@@ -14226,94 +14226,94 @@
     </row>
     <row r="60" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
         <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I60">
-        <v>2040</v>
+        <v>4400</v>
       </c>
       <c r="J60">
-        <v>3376</v>
+        <v>3311</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L60">
-        <v>0.4285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M60">
         <v>4</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>30.1</v>
+        <v>26.66</v>
       </c>
       <c r="Q60">
-        <v>0.45606060606060611</v>
+        <v>0.40393939393939388</v>
       </c>
       <c r="R60">
-        <v>0.44231601731601727</v>
+        <v>0.52339826839826842</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="V60">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="W60">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="X60">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y60">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="Z60">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60">
         <v>1</v>
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="AK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -14343,13 +14343,13 @@
         <v>1</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
         <v>0</v>
@@ -14364,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
         <v>1</v>
@@ -14382,13 +14382,13 @@
         <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60">
         <v>0</v>
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60">
         <v>1</v>
@@ -14441,19 +14441,19 @@
     </row>
     <row r="61" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>73</v>
@@ -14465,79 +14465,79 @@
         <v>84</v>
       </c>
       <c r="I61">
-        <v>4400</v>
+        <v>1111</v>
       </c>
       <c r="J61">
-        <v>3311</v>
+        <v>5400</v>
       </c>
       <c r="K61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L61">
-        <v>0.6428571428571429</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>29.6</v>
+      </c>
+      <c r="Q61">
+        <v>0.44848484848484849</v>
+      </c>
+      <c r="R61">
+        <v>0.43852813852813849</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>264</v>
+      </c>
+      <c r="V61">
+        <v>187</v>
+      </c>
+      <c r="W61">
+        <v>155</v>
+      </c>
+      <c r="X61">
+        <v>100</v>
+      </c>
+      <c r="Y61">
+        <v>442</v>
+      </c>
+      <c r="Z61">
+        <v>73</v>
+      </c>
+      <c r="AA61">
         <v>3</v>
       </c>
-      <c r="P61">
-        <v>26.66</v>
-      </c>
-      <c r="Q61">
-        <v>0.40393939393939388</v>
-      </c>
-      <c r="R61">
-        <v>0.52339826839826842</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>261</v>
-      </c>
-      <c r="V61">
-        <v>182</v>
-      </c>
-      <c r="W61">
-        <v>153</v>
-      </c>
-      <c r="X61">
-        <v>90</v>
-      </c>
-      <c r="Y61">
-        <v>425</v>
-      </c>
-      <c r="Z61">
-        <v>76</v>
-      </c>
-      <c r="AA61">
-        <v>4</v>
-      </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -14546,22 +14546,22 @@
         <v>1</v>
       </c>
       <c r="AJ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>0</v>
       </c>
       <c r="AM61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -14573,13 +14573,13 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1</v>
       </c>
       <c r="AU61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV61">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC61">
         <v>0</v>
@@ -14612,22 +14612,22 @@
         <v>1</v>
       </c>
       <c r="BF61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG61">
         <v>1</v>
       </c>
       <c r="BH61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI61">
         <v>1</v>
       </c>
       <c r="BJ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL61">
         <v>0</v>
@@ -14656,34 +14656,34 @@
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I62">
-        <v>1111</v>
+        <v>2400</v>
       </c>
       <c r="J62">
-        <v>5400</v>
+        <v>3887</v>
       </c>
       <c r="K62">
         <v>6</v>
@@ -14695,46 +14695,46 @@
         <v>3</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>29.6</v>
+        <v>29.41</v>
       </c>
       <c r="Q62">
-        <v>0.44848484848484849</v>
+        <v>0.44560606060606062</v>
       </c>
       <c r="R62">
-        <v>0.43852813852813849</v>
+        <v>0.43708874458874458</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="V62">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="W62">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="X62">
         <v>100</v>
       </c>
       <c r="Y62">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="Z62">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="AA62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>1</v>
@@ -14752,19 +14752,19 @@
         <v>1</v>
       </c>
       <c r="AG62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="AU62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="AX62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62">
         <v>0</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC62">
         <v>0</v>
@@ -14827,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="BF62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62">
         <v>1</v>
@@ -14836,22 +14836,22 @@
         <v>1</v>
       </c>
       <c r="BI62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62">
         <v>0</v>
       </c>
       <c r="BM62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO62">
         <v>0</v>
@@ -14871,13 +14871,13 @@
     </row>
     <row r="63" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -14886,94 +14886,94 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I63">
-        <v>2400</v>
+        <v>1148</v>
       </c>
       <c r="J63">
-        <v>3887</v>
+        <v>5400</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L63">
-        <v>0.4285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
         <v>3</v>
       </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
       <c r="P63">
-        <v>29.41</v>
+        <v>24.41</v>
       </c>
       <c r="Q63">
-        <v>0.44560606060606062</v>
+        <v>0.36984848484848482</v>
       </c>
       <c r="R63">
-        <v>0.43708874458874458</v>
+        <v>0.57778138528138523</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="V63">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="W63">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="X63">
         <v>100</v>
       </c>
       <c r="Y63">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="Z63">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH63">
         <v>1</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -14985,13 +14985,13 @@
         <v>0</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN63">
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP63">
         <v>0</v>
@@ -15021,16 +15021,16 @@
         <v>1</v>
       </c>
       <c r="AY63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA63">
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63">
         <v>0</v>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="BF63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG63">
         <v>1</v>
@@ -15051,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ63">
         <v>0</v>
@@ -15063,10 +15063,10 @@
         <v>0</v>
       </c>
       <c r="BM63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO63">
         <v>0</v>
@@ -15086,22 +15086,22 @@
     </row>
     <row r="64" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s">
         <v>74</v>
@@ -15110,10 +15110,10 @@
         <v>84</v>
       </c>
       <c r="I64">
-        <v>1148</v>
+        <v>9700</v>
       </c>
       <c r="J64">
-        <v>5400</v>
+        <v>2594</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -15122,55 +15122,55 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64">
         <v>4</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64">
-        <v>24.41</v>
+        <v>23.66</v>
       </c>
       <c r="Q64">
-        <v>0.36984848484848482</v>
+        <v>0.35848484848484841</v>
       </c>
       <c r="R64">
-        <v>0.57778138528138523</v>
+        <v>0.572099567099567</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V64">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="W64">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X64">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Y64">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="Z64">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AA64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -15206,10 +15206,10 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -15218,28 +15218,28 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64">
         <v>1</v>
       </c>
       <c r="AU64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW64">
         <v>1</v>
       </c>
       <c r="AX64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64">
         <v>0</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="BC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD64">
         <v>0</v>
@@ -15260,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="BG64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH64">
         <v>1</v>
@@ -15301,85 +15301,85 @@
     </row>
     <row r="65" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I65">
-        <v>9700</v>
+        <v>2073</v>
       </c>
       <c r="J65">
-        <v>2594</v>
+        <v>4743</v>
       </c>
       <c r="K65">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L65">
-        <v>0.7857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M65">
         <v>5</v>
       </c>
       <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>26.6</v>
+      </c>
+      <c r="Q65">
+        <v>0.40303030303030313</v>
+      </c>
+      <c r="R65">
+        <v>0.48722943722943718</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>276</v>
+      </c>
+      <c r="V65">
+        <v>189</v>
+      </c>
+      <c r="W65">
+        <v>178</v>
+      </c>
+      <c r="X65">
+        <v>90</v>
+      </c>
+      <c r="Y65">
+        <v>457</v>
+      </c>
+      <c r="Z65">
         <v>4</v>
       </c>
-      <c r="O65">
-        <v>2</v>
-      </c>
-      <c r="P65">
-        <v>23.66</v>
-      </c>
-      <c r="Q65">
-        <v>0.35848484848484841</v>
-      </c>
-      <c r="R65">
-        <v>0.572099567099567</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>273</v>
-      </c>
-      <c r="V65">
-        <v>193</v>
-      </c>
-      <c r="W65">
-        <v>192</v>
-      </c>
-      <c r="X65">
-        <v>88</v>
-      </c>
-      <c r="Y65">
-        <v>473</v>
-      </c>
-      <c r="Z65">
-        <v>98</v>
-      </c>
       <c r="AA65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB65">
         <v>1</v>
@@ -15397,13 +15397,13 @@
         <v>1</v>
       </c>
       <c r="AG65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65">
         <v>1</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="AM65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65">
         <v>1</v>
@@ -15427,22 +15427,22 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65">
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65">
         <v>1</v>
       </c>
       <c r="AU65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW65">
         <v>1</v>
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="BC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="BG65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH65">
         <v>1</v>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="BM65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN65">
         <v>0</v>
@@ -15516,58 +15516,58 @@
     </row>
     <row r="66" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G66" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I66">
-        <v>2073</v>
+        <v>2225</v>
       </c>
       <c r="J66">
-        <v>4743</v>
+        <v>5342</v>
       </c>
       <c r="K66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L66">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M66">
         <v>5</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O66">
         <v>1</v>
       </c>
       <c r="P66">
-        <v>26.6</v>
+        <v>25.52</v>
       </c>
       <c r="Q66">
-        <v>0.40303030303030313</v>
+        <v>0.38666666666666671</v>
       </c>
       <c r="R66">
-        <v>0.48722943722943718</v>
+        <v>0.51476190476190475</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -15576,25 +15576,25 @@
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="V66">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="W66">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="X66">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y66">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="Z66">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -15615,13 +15615,13 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66">
         <v>1</v>
@@ -15639,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="BA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB66">
         <v>0</v>
@@ -15681,19 +15681,19 @@
         <v>0</v>
       </c>
       <c r="BD66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE66">
         <v>1</v>
       </c>
       <c r="BF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66">
         <v>1</v>
@@ -15702,13 +15702,13 @@
         <v>0</v>
       </c>
       <c r="BK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL66">
         <v>0</v>
       </c>
       <c r="BM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>0</v>
@@ -15731,58 +15731,58 @@
     </row>
     <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I67">
-        <v>2225</v>
+        <v>2011</v>
       </c>
       <c r="J67">
-        <v>5342</v>
+        <v>2552</v>
       </c>
       <c r="K67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L67">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67">
         <v>3</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>25.52</v>
+        <v>27.5</v>
       </c>
       <c r="Q67">
-        <v>0.38666666666666671</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="R67">
-        <v>0.51476190476190475</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -15791,25 +15791,25 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="V67">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="W67">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="X67">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="Y67">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="Z67">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="AA67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB67">
         <v>1</v>
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67">
         <v>1</v>
@@ -15827,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH67">
         <v>0</v>
@@ -15836,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="AJ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67">
         <v>1</v>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>0</v>
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="BA67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67">
         <v>0</v>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="BD67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE67">
         <v>1</v>
@@ -15905,10 +15905,10 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI67">
         <v>1</v>
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="BK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL67">
         <v>0</v>
@@ -15941,45 +15941,45 @@
         <v>0</v>
       </c>
       <c r="BS67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I68">
-        <v>2011</v>
+        <v>94352</v>
       </c>
       <c r="J68">
-        <v>2552</v>
+        <v>5394</v>
       </c>
       <c r="K68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L68">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M68">
         <v>4</v>
@@ -15988,16 +15988,16 @@
         <v>3</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>27.5</v>
+        <v>26.41</v>
       </c>
       <c r="Q68">
-        <v>0.41666666666666669</v>
+        <v>0.40015151515151509</v>
       </c>
       <c r="R68">
-        <v>0.45833333333333343</v>
+        <v>0.48579004329004333</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -16006,22 +16006,22 @@
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V68">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="W68">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="X68">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y68">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="Z68">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -16042,10 +16042,10 @@
         <v>1</v>
       </c>
       <c r="AG68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68">
         <v>1</v>
@@ -16066,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="AO68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP68">
         <v>0</v>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="AU68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV68">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="BB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC68">
         <v>0</v>
@@ -16120,13 +16120,13 @@
         <v>0</v>
       </c>
       <c r="BG68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ68">
         <v>0</v>
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="BM68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN68">
         <v>0</v>
@@ -16156,24 +16156,24 @@
         <v>0</v>
       </c>
       <c r="BS68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
         <v>73</v>
@@ -16185,62 +16185,62 @@
         <v>75</v>
       </c>
       <c r="I69">
-        <v>94352</v>
+        <v>1085</v>
       </c>
       <c r="J69">
-        <v>5394</v>
+        <v>3500</v>
       </c>
       <c r="K69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L69">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>28.33</v>
+      </c>
+      <c r="Q69">
+        <v>0.4292424242424242</v>
+      </c>
+      <c r="R69">
+        <v>0.4289069264069264</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>288</v>
+      </c>
+      <c r="V69">
+        <v>165</v>
+      </c>
+      <c r="W69">
+        <v>162</v>
+      </c>
+      <c r="X69">
+        <v>100</v>
+      </c>
+      <c r="Y69">
+        <v>427</v>
+      </c>
+      <c r="Z69">
+        <v>73</v>
+      </c>
+      <c r="AA69">
         <v>3</v>
       </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>26.41</v>
-      </c>
-      <c r="Q69">
-        <v>0.40015151515151509</v>
-      </c>
-      <c r="R69">
-        <v>0.48579004329004333</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69" t="s">
-        <v>285</v>
-      </c>
-      <c r="V69">
-        <v>196</v>
-      </c>
-      <c r="W69">
-        <v>151</v>
-      </c>
-      <c r="X69">
-        <v>90</v>
-      </c>
-      <c r="Y69">
-        <v>437</v>
-      </c>
-      <c r="Z69">
-        <v>36</v>
-      </c>
-      <c r="AA69">
-        <v>1</v>
-      </c>
       <c r="AB69">
         <v>1</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -16263,7 +16263,7 @@
         <v>1</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -16278,10 +16278,10 @@
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP69">
         <v>0</v>
@@ -16299,7 +16299,7 @@
         <v>1</v>
       </c>
       <c r="AU69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV69">
         <v>1</v>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="AX69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY69">
         <v>0</v>
@@ -16335,10 +16335,10 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI69">
         <v>0</v>
@@ -16376,82 +16376,82 @@
     </row>
     <row r="70" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I70">
-        <v>1085</v>
+        <v>1131</v>
       </c>
       <c r="J70">
-        <v>3500</v>
+        <v>4939</v>
       </c>
       <c r="K70">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L70">
-        <v>0.4285714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
       <c r="P70">
-        <v>28.33</v>
+        <v>21.25</v>
       </c>
       <c r="Q70">
-        <v>0.4292424242424242</v>
+        <v>0.32196969696969702</v>
       </c>
       <c r="R70">
-        <v>0.4289069264069264</v>
+        <v>0.62527056277056281</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V70">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="W70">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="X70">
         <v>100</v>
       </c>
       <c r="Y70">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Z70">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AA70">
         <v>3</v>
@@ -16463,34 +16463,34 @@
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>1</v>
       </c>
       <c r="AG70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH70">
         <v>1</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK70">
         <v>1</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70">
         <v>1</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR70">
         <v>0</v>
@@ -16532,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="BA70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB70">
         <v>1</v>
@@ -16544,34 +16544,34 @@
         <v>0</v>
       </c>
       <c r="BE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF70">
         <v>0</v>
       </c>
       <c r="BG70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH70">
         <v>1</v>
       </c>
       <c r="BI70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ70">
         <v>0</v>
       </c>
       <c r="BK70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL70">
         <v>0</v>
       </c>
       <c r="BM70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO70">
         <v>0</v>
@@ -16591,94 +16591,94 @@
     </row>
     <row r="71" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I71">
-        <v>1131</v>
+        <v>2193</v>
       </c>
       <c r="J71">
-        <v>4939</v>
+        <v>4528</v>
       </c>
       <c r="K71">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L71">
-        <v>0.9285714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O71">
         <v>3</v>
       </c>
       <c r="P71">
-        <v>21.25</v>
+        <v>26.19</v>
       </c>
       <c r="Q71">
-        <v>0.32196969696969702</v>
+        <v>0.39681818181818179</v>
       </c>
       <c r="R71">
-        <v>0.62527056277056281</v>
+        <v>0.48412337662337662</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="V71">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="W71">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="X71">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y71">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="Z71">
-        <v>60</v>
+        <v>73.5</v>
       </c>
       <c r="AA71">
         <v>3</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
         <v>1</v>
       </c>
       <c r="AD71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71">
         <v>1</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="AG71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH71">
         <v>1</v>
@@ -16696,10 +16696,10 @@
         <v>1</v>
       </c>
       <c r="AJ71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
@@ -16708,10 +16708,10 @@
         <v>1</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71">
         <v>0</v>
@@ -16732,13 +16732,13 @@
         <v>0</v>
       </c>
       <c r="AV71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW71">
         <v>1</v>
       </c>
       <c r="AX71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY71">
         <v>0</v>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="BA71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB71">
         <v>1</v>
@@ -16759,13 +16759,13 @@
         <v>0</v>
       </c>
       <c r="BE71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH71">
         <v>1</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="BN71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO71">
         <v>0</v>
@@ -16806,16 +16806,16 @@
     </row>
     <row r="72" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -16827,73 +16827,73 @@
         <v>118</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I72">
-        <v>2193</v>
+        <v>2093</v>
       </c>
       <c r="J72">
-        <v>4528</v>
+        <v>4839</v>
       </c>
       <c r="K72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P72">
-        <v>26.19</v>
+        <v>25.09</v>
       </c>
       <c r="Q72">
-        <v>0.39681818181818179</v>
+        <v>0.38015151515151518</v>
       </c>
       <c r="R72">
-        <v>0.48412337662337662</v>
+        <v>0.51150432900432907</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V72">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="W72">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="X72">
         <v>90</v>
       </c>
       <c r="Y72">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="Z72">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>1</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -16908,31 +16908,31 @@
         <v>1</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO72">
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>0</v>
@@ -16947,7 +16947,7 @@
         <v>0</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW72">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="BB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC72">
         <v>0</v>
@@ -16977,13 +16977,13 @@
         <v>1</v>
       </c>
       <c r="BF72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI72">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="BM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN72">
         <v>0</v>
@@ -17021,13 +17021,13 @@
     </row>
     <row r="73" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -17042,64 +17042,64 @@
         <v>118</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I73">
-        <v>2093</v>
+        <v>2230</v>
       </c>
       <c r="J73">
-        <v>4839</v>
+        <v>4629</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L73">
-        <v>0.6428571428571429</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>25.09</v>
+        <v>22.44</v>
       </c>
       <c r="Q73">
-        <v>0.38015151515151518</v>
+        <v>0.34</v>
       </c>
       <c r="R73">
-        <v>0.51150432900432907</v>
+        <v>0.56285714285714283</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="V73">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="W73">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="X73">
         <v>90</v>
       </c>
       <c r="Y73">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB73">
         <v>1</v>
@@ -17108,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="AD73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73">
         <v>1</v>
@@ -17117,13 +17117,13 @@
         <v>1</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73">
         <v>1</v>
       </c>
       <c r="AI73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ73">
         <v>1</v>
@@ -17132,22 +17132,22 @@
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73">
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73">
         <v>0</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="AU73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV73">
         <v>1</v>
@@ -17189,22 +17189,22 @@
         <v>0</v>
       </c>
       <c r="BE73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF73">
         <v>0</v>
       </c>
       <c r="BG73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI73">
         <v>1</v>
       </c>
       <c r="BJ73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK73">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="BM73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN73">
         <v>0</v>
@@ -17236,85 +17236,85 @@
     </row>
     <row r="74" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
         <v>80</v>
       </c>
       <c r="I74">
-        <v>2230</v>
+        <v>2040</v>
       </c>
       <c r="J74">
-        <v>4629</v>
+        <v>3764</v>
       </c>
       <c r="K74">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L74">
-        <v>0.7857142857142857</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M74">
         <v>4</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>22.44</v>
+        <v>27.26</v>
       </c>
       <c r="Q74">
-        <v>0.34</v>
+        <v>0.41303030303030303</v>
       </c>
       <c r="R74">
-        <v>0.56285714285714283</v>
+        <v>0.42080086580086579</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="V74">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W74">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="X74">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Y74">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="Z74">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AA74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -17332,7 +17332,7 @@
         <v>1</v>
       </c>
       <c r="AG74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74">
         <v>1</v>
@@ -17341,19 +17341,19 @@
         <v>1</v>
       </c>
       <c r="AJ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="AV74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW74">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ74">
         <v>0</v>
@@ -17404,10 +17404,10 @@
         <v>0</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG74">
         <v>1</v>
@@ -17419,10 +17419,10 @@
         <v>1</v>
       </c>
       <c r="BJ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL74">
         <v>0</v>
@@ -17446,39 +17446,39 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I75">
-        <v>2040</v>
+        <v>3900</v>
       </c>
       <c r="J75">
-        <v>3764</v>
+        <v>3643</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -17511,22 +17511,22 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="V75">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="W75">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X75">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y75">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Z75">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AA75">
         <v>1</v>
@@ -17547,16 +17547,16 @@
         <v>1</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -17589,19 +17589,19 @@
         <v>1</v>
       </c>
       <c r="AU75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ75">
         <v>0</v>
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="BB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC75">
         <v>0</v>
@@ -17622,22 +17622,22 @@
         <v>1</v>
       </c>
       <c r="BF75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ75">
         <v>0</v>
       </c>
       <c r="BK75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL75">
         <v>0</v>
@@ -17666,13 +17666,13 @@
     </row>
     <row r="76" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -17681,70 +17681,70 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
         <v>84</v>
       </c>
       <c r="I76">
-        <v>3900</v>
+        <v>2800</v>
       </c>
       <c r="J76">
-        <v>3643</v>
+        <v>3907</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>0.4285714285714286</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="M76">
         <v>4</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>27.26</v>
+        <v>28.18</v>
       </c>
       <c r="Q76">
-        <v>0.41303030303030303</v>
+        <v>0.42696969696969689</v>
       </c>
       <c r="R76">
-        <v>0.42080086580086579</v>
+        <v>0.3920562770562771</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="V76">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="W76">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="X76">
         <v>90</v>
       </c>
       <c r="Y76">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="Z76">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AG76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH76">
         <v>0</v>
@@ -17771,10 +17771,10 @@
         <v>0</v>
       </c>
       <c r="AJ76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76">
         <v>0</v>
@@ -17810,13 +17810,13 @@
         <v>1</v>
       </c>
       <c r="AW76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX76">
         <v>1</v>
       </c>
       <c r="AY76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ76">
         <v>0</v>
@@ -17825,13 +17825,13 @@
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC76">
         <v>0</v>
       </c>
       <c r="BD76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE76">
         <v>1</v>
@@ -17840,16 +17840,16 @@
         <v>0</v>
       </c>
       <c r="BG76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH76">
         <v>0</v>
       </c>
       <c r="BI76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK76">
         <v>1</v>
@@ -17873,90 +17873,90 @@
         <v>0</v>
       </c>
       <c r="BR76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I77">
-        <v>2800</v>
+        <v>8449</v>
       </c>
       <c r="J77">
-        <v>3907</v>
+        <v>4877</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L77">
-        <v>0.35714285714285721</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M77">
         <v>4</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
-        <v>28.18</v>
+        <v>24.17</v>
       </c>
       <c r="Q77">
-        <v>0.42696969696969689</v>
+        <v>0.36621212121212121</v>
       </c>
       <c r="R77">
-        <v>0.3920562770562771</v>
+        <v>0.4688203463203463</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="V77">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="W77">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="X77">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Y77">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="Z77">
-        <v>72</v>
+        <v>67.5</v>
       </c>
       <c r="AA77">
         <v>3</v>
@@ -17980,16 +17980,16 @@
         <v>0</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>0</v>
@@ -18001,13 +18001,13 @@
         <v>0</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77">
         <v>0</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>0</v>
@@ -18022,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="AV77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW77">
         <v>1</v>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="BD77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE77">
         <v>1</v>
@@ -18064,10 +18064,10 @@
         <v>1</v>
       </c>
       <c r="BJ77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL77">
         <v>0</v>
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="BR77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS77">
         <v>0</v>
@@ -18096,85 +18096,85 @@
     </row>
     <row r="78" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
         <v>118</v>
       </c>
       <c r="H78" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I78">
-        <v>8449</v>
+        <v>2500</v>
       </c>
       <c r="J78">
-        <v>4877</v>
+        <v>4391</v>
       </c>
       <c r="K78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L78">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M78">
         <v>4</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>1</v>
       </c>
       <c r="P78">
-        <v>24.17</v>
+        <v>25.83</v>
       </c>
       <c r="Q78">
-        <v>0.36621212121212121</v>
+        <v>0.39136363636363641</v>
       </c>
       <c r="R78">
-        <v>0.4688203463203463</v>
+        <v>0.40996753246753248</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="V78">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W78">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="X78">
         <v>78</v>
       </c>
       <c r="Y78">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="Z78">
-        <v>67.5</v>
+        <v>9</v>
       </c>
       <c r="AA78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>1</v>
@@ -18183,10 +18183,10 @@
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -18195,16 +18195,16 @@
         <v>0</v>
       </c>
       <c r="AH78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78">
         <v>0</v>
@@ -18213,16 +18213,16 @@
         <v>0</v>
       </c>
       <c r="AN78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP78">
         <v>0</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR78">
         <v>0</v>
@@ -18234,28 +18234,28 @@
         <v>1</v>
       </c>
       <c r="AU78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW78">
         <v>1</v>
       </c>
       <c r="AX78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ78">
         <v>0</v>
       </c>
       <c r="BA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC78">
         <v>0</v>
@@ -18267,13 +18267,13 @@
         <v>1</v>
       </c>
       <c r="BF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI78">
         <v>1</v>
@@ -18311,58 +18311,58 @@
     </row>
     <row r="79" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I79">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="J79">
-        <v>4391</v>
+        <v>3228</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L79">
-        <v>0.4285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>25.83</v>
+        <v>27.75</v>
       </c>
       <c r="Q79">
-        <v>0.39136363636363641</v>
+        <v>0.42045454545454553</v>
       </c>
       <c r="R79">
-        <v>0.40996753246753248</v>
+        <v>0.35308441558441561</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -18371,25 +18371,25 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="V79">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="W79">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="X79">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y79">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="Z79">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB79">
         <v>1</v>
@@ -18398,13 +18398,13 @@
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -18428,16 +18428,16 @@
         <v>0</v>
       </c>
       <c r="AN79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO79">
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>0</v>
@@ -18449,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="AU79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV79">
         <v>1</v>
@@ -18467,10 +18467,10 @@
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC79">
         <v>0</v>
@@ -18482,13 +18482,13 @@
         <v>1</v>
       </c>
       <c r="BF79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI79">
         <v>1</v>
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="BK79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL79">
         <v>0</v>
@@ -18526,82 +18526,82 @@
     </row>
     <row r="80" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
         <v>75</v>
       </c>
       <c r="I80">
-        <v>4400</v>
+        <v>2330</v>
       </c>
       <c r="J80">
-        <v>3228</v>
+        <v>5295</v>
       </c>
       <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
         <v>4</v>
       </c>
-      <c r="L80">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M80">
+      <c r="O80">
         <v>3</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
       <c r="P80">
-        <v>27.75</v>
+        <v>22.5</v>
       </c>
       <c r="Q80">
-        <v>0.42045454545454553</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="R80">
-        <v>0.35308441558441561</v>
+        <v>0.49188311688311692</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V80">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="W80">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X80">
         <v>90</v>
       </c>
       <c r="Y80">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="Z80">
-        <v>64</v>
+        <v>60.5</v>
       </c>
       <c r="AA80">
         <v>3</v>
@@ -18616,43 +18616,43 @@
         <v>0</v>
       </c>
       <c r="AE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80">
         <v>0</v>
       </c>
       <c r="AO80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR80">
         <v>0</v>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="BB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC80">
         <v>0</v>
@@ -18700,19 +18700,19 @@
         <v>0</v>
       </c>
       <c r="BG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH80">
         <v>0</v>
       </c>
       <c r="BI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ80">
         <v>0</v>
       </c>
       <c r="BK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL80">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="BP80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ80">
         <v>0</v>
@@ -18741,100 +18741,100 @@
     </row>
     <row r="81" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="G81" t="s">
         <v>118</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I81">
-        <v>2330</v>
+        <v>1111</v>
       </c>
       <c r="J81">
-        <v>5295</v>
+        <v>5400</v>
       </c>
       <c r="K81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L81">
-        <v>0.6428571428571429</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
         <v>2</v>
       </c>
-      <c r="N81">
-        <v>4</v>
-      </c>
       <c r="O81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>22.5</v>
+        <v>25.42</v>
       </c>
       <c r="Q81">
-        <v>0.34090909090909088</v>
+        <v>0.38515151515151519</v>
       </c>
       <c r="R81">
-        <v>0.49188311688311692</v>
+        <v>0.40686147186147192</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="V81">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="W81">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="X81">
         <v>90</v>
       </c>
       <c r="Y81">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="Z81">
-        <v>60.5</v>
+        <v>46</v>
       </c>
       <c r="AA81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD81">
         <v>0</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG81">
         <v>1</v>
@@ -18843,37 +18843,37 @@
         <v>1</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP81">
         <v>0</v>
       </c>
       <c r="AQ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="AX81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY81">
         <v>0</v>
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="BA81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB81">
         <v>1</v>
@@ -18912,16 +18912,16 @@
         <v>1</v>
       </c>
       <c r="BF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ81">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="BP81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ81">
         <v>0</v>
@@ -18956,22 +18956,22 @@
     </row>
     <row r="82" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="G82" t="s">
         <v>118</v>
@@ -18980,58 +18980,58 @@
         <v>84</v>
       </c>
       <c r="I82">
-        <v>1111</v>
+        <v>1031</v>
       </c>
       <c r="J82">
-        <v>5400</v>
+        <v>5281</v>
       </c>
       <c r="K82">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L82">
-        <v>0.4285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>1</v>
       </c>
       <c r="P82">
-        <v>25.42</v>
+        <v>22.01</v>
       </c>
       <c r="Q82">
-        <v>0.38515151515151519</v>
+        <v>0.3334848484848485</v>
       </c>
       <c r="R82">
-        <v>0.40686147186147192</v>
+        <v>0.4881709956709957</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="V82">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="W82">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="X82">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Y82">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="Z82">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82">
         <v>1</v>
@@ -19058,10 +19058,10 @@
         <v>1</v>
       </c>
       <c r="AI82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR82">
         <v>0</v>
@@ -19103,16 +19103,16 @@
         <v>1</v>
       </c>
       <c r="AX82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY82">
         <v>0</v>
       </c>
       <c r="AZ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB82">
         <v>1</v>
@@ -19127,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="BF82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG82">
         <v>1</v>
@@ -19171,13 +19171,13 @@
     </row>
     <row r="83" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -19186,25 +19186,25 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
         <v>118</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I83">
-        <v>1031</v>
+        <v>8360</v>
       </c>
       <c r="J83">
-        <v>5281</v>
+        <v>5400</v>
       </c>
       <c r="K83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L83">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M83">
         <v>4</v>
@@ -19213,16 +19213,16 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>22.01</v>
+        <v>20.66</v>
       </c>
       <c r="Q83">
-        <v>0.3334848484848485</v>
+        <v>0.3130303030303031</v>
       </c>
       <c r="R83">
-        <v>0.4881709956709957</v>
+        <v>0.5136580086580087</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -19231,31 +19231,31 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="V83">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="W83">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="X83">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y83">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Z83">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AA83">
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="AG83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH83">
         <v>1</v>
@@ -19279,13 +19279,13 @@
         <v>1</v>
       </c>
       <c r="AK83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83">
         <v>0</v>
       </c>
       <c r="AM83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83">
         <v>1</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0</v>
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -19315,16 +19315,16 @@
         <v>1</v>
       </c>
       <c r="AW83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX83">
         <v>0</v>
       </c>
       <c r="AY83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA83">
         <v>0</v>
@@ -19339,16 +19339,16 @@
         <v>0</v>
       </c>
       <c r="BE83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF83">
         <v>0</v>
       </c>
       <c r="BG83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI83">
         <v>1</v>
@@ -19386,31 +19386,31 @@
     </row>
     <row r="84" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="I84">
-        <v>8360</v>
+        <v>5600</v>
       </c>
       <c r="J84">
         <v>5400</v>
@@ -19446,28 +19446,28 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="V84">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="W84">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="X84">
         <v>90</v>
       </c>
       <c r="Y84">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="Z84">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>1</v>
@@ -19476,13 +19476,13 @@
         <v>1</v>
       </c>
       <c r="AE84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>1</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH84">
         <v>1</v>
@@ -19494,22 +19494,22 @@
         <v>1</v>
       </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>0</v>
       </c>
       <c r="AM84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <v>1</v>
       </c>
       <c r="AO84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ84">
         <v>0</v>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="AX84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY84">
         <v>1</v>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="BB84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC84">
         <v>0</v>
@@ -19554,16 +19554,16 @@
         <v>0</v>
       </c>
       <c r="BE84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF84">
         <v>0</v>
       </c>
       <c r="BG84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI84">
         <v>1</v>
@@ -19601,13 +19601,13 @@
     </row>
     <row r="85" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -19616,118 +19616,118 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G85" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H85" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I85">
-        <v>5600</v>
+        <v>1162</v>
       </c>
       <c r="J85">
-        <v>5400</v>
+        <v>4834</v>
       </c>
       <c r="K85">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>0.7142857142857143</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O85">
         <v>2</v>
       </c>
       <c r="P85">
-        <v>20.66</v>
+        <v>24.91</v>
       </c>
       <c r="Q85">
-        <v>0.3130303030303031</v>
+        <v>0.37742424242424238</v>
       </c>
       <c r="R85">
-        <v>0.5136580086580087</v>
+        <v>0.36728354978354982</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V85">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="W85">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="X85">
         <v>90</v>
       </c>
       <c r="Y85">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="Z85">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="AA85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC85">
         <v>1</v>
       </c>
       <c r="AD85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE85">
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG85">
         <v>1</v>
       </c>
       <c r="AH85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI85">
         <v>1</v>
       </c>
       <c r="AJ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85">
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO85">
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>0</v>
@@ -19745,13 +19745,13 @@
         <v>1</v>
       </c>
       <c r="AW85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX85">
         <v>1</v>
       </c>
       <c r="AY85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ85">
         <v>0</v>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="BB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC85">
         <v>0</v>
@@ -19778,13 +19778,13 @@
         <v>1</v>
       </c>
       <c r="BH85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK85">
         <v>0</v>
@@ -19816,100 +19816,100 @@
     </row>
     <row r="86" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C86" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s">
         <v>80</v>
       </c>
       <c r="I86">
-        <v>1162</v>
+        <v>1076</v>
       </c>
       <c r="J86">
-        <v>4834</v>
+        <v>5400</v>
       </c>
       <c r="K86">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L86">
-        <v>0.35714285714285721</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N86">
         <v>2</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>24.91</v>
+        <v>20.66</v>
       </c>
       <c r="Q86">
-        <v>0.37742424242424238</v>
+        <v>0.3130303030303031</v>
       </c>
       <c r="R86">
-        <v>0.36728354978354982</v>
+        <v>0.477943722943723</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="V86">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="W86">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="X86">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y86">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="Z86">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>1</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86">
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86">
         <v>1</v>
@@ -19927,22 +19927,22 @@
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO86">
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR86">
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>1</v>
       </c>
       <c r="AY86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ86">
         <v>0</v>
@@ -19975,10 +19975,10 @@
         <v>0</v>
       </c>
       <c r="BB86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD86">
         <v>0</v>
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH86">
         <v>0</v>
@@ -19999,10 +19999,10 @@
         <v>0</v>
       </c>
       <c r="BJ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL86">
         <v>0</v>
@@ -20031,40 +20031,40 @@
     </row>
     <row r="87" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C87" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
         <v>74</v>
       </c>
       <c r="H87" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I87">
-        <v>1076</v>
+        <v>2600</v>
       </c>
       <c r="J87">
-        <v>5400</v>
+        <v>5243</v>
       </c>
       <c r="K87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="M87">
         <v>4</v>
@@ -20073,44 +20073,44 @@
         <v>2</v>
       </c>
       <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>22.16</v>
+      </c>
+      <c r="Q87">
+        <v>0.33575757575757581</v>
+      </c>
+      <c r="R87">
+        <v>0.41787878787878791</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
+        <v>341</v>
+      </c>
+      <c r="V87">
+        <v>163</v>
+      </c>
+      <c r="W87">
+        <v>150</v>
+      </c>
+      <c r="X87">
+        <v>78</v>
+      </c>
+      <c r="Y87">
+        <v>391</v>
+      </c>
+      <c r="Z87">
+        <v>74</v>
+      </c>
+      <c r="AA87">
         <v>3</v>
       </c>
-      <c r="P87">
-        <v>20.66</v>
-      </c>
-      <c r="Q87">
-        <v>0.3130303030303031</v>
-      </c>
-      <c r="R87">
-        <v>0.477943722943723</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87" t="s">
-        <v>338</v>
-      </c>
-      <c r="V87">
-        <v>187</v>
-      </c>
-      <c r="W87">
-        <v>160</v>
-      </c>
-      <c r="X87">
-        <v>100</v>
-      </c>
-      <c r="Y87">
-        <v>447</v>
-      </c>
-      <c r="Z87">
-        <v>92</v>
-      </c>
-      <c r="AA87">
-        <v>5</v>
-      </c>
       <c r="AB87">
         <v>1</v>
       </c>
@@ -20118,10 +20118,10 @@
         <v>1</v>
       </c>
       <c r="AD87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -20145,13 +20145,13 @@
         <v>0</v>
       </c>
       <c r="AM87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN87">
         <v>1</v>
       </c>
       <c r="AO87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP87">
         <v>0</v>
@@ -20169,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="AU87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV87">
         <v>1</v>
@@ -20181,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="AY87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ87">
         <v>0</v>
@@ -20190,10 +20190,10 @@
         <v>0</v>
       </c>
       <c r="BB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -20202,13 +20202,13 @@
         <v>1</v>
       </c>
       <c r="BF87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI87">
         <v>0</v>
@@ -20246,19 +20246,19 @@
     </row>
     <row r="88" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>134</v>
@@ -20267,37 +20267,37 @@
         <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I88">
-        <v>2600</v>
+        <v>2220</v>
       </c>
       <c r="J88">
-        <v>5243</v>
+        <v>4335</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L88">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
         <v>4</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88">
-        <v>22.16</v>
+        <v>21</v>
       </c>
       <c r="Q88">
-        <v>0.33575757575757581</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="R88">
-        <v>0.41787878787878791</v>
+        <v>0.44480519480519481</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -20306,25 +20306,25 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="V88">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="W88">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="X88">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y88">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="Z88">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="AA88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -20336,34 +20336,34 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>1</v>
       </c>
       <c r="AG88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI88">
         <v>1</v>
       </c>
       <c r="AJ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM88">
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO88">
         <v>0</v>
@@ -20372,25 +20372,25 @@
         <v>0</v>
       </c>
       <c r="AQ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT88">
         <v>1</v>
       </c>
       <c r="AU88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV88">
         <v>1</v>
       </c>
       <c r="AW88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX88">
         <v>1</v>
@@ -20417,16 +20417,16 @@
         <v>1</v>
       </c>
       <c r="BF88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG88">
         <v>1</v>
       </c>
       <c r="BH88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ88">
         <v>0</v>
@@ -20461,88 +20461,88 @@
     </row>
     <row r="89" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C89" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
         <v>80</v>
       </c>
       <c r="I89">
-        <v>2220</v>
+        <v>2400</v>
       </c>
       <c r="J89">
-        <v>4335</v>
+        <v>2471</v>
       </c>
       <c r="K89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
         <v>3</v>
       </c>
-      <c r="N89">
-        <v>4</v>
-      </c>
       <c r="O89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89">
-        <v>21</v>
+        <v>21.16</v>
       </c>
       <c r="Q89">
-        <v>0.31818181818181818</v>
+        <v>0.32060606060606062</v>
       </c>
       <c r="R89">
-        <v>0.44480519480519481</v>
+        <v>0.41030303030303028</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="V89">
         <v>178</v>
       </c>
       <c r="W89">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="X89">
         <v>90</v>
       </c>
       <c r="Y89">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="Z89">
-        <v>30</v>
+        <v>91.5</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
         <v>1</v>
@@ -20551,13 +20551,13 @@
         <v>0</v>
       </c>
       <c r="AE89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH89">
         <v>1</v>
@@ -20566,19 +20566,19 @@
         <v>1</v>
       </c>
       <c r="AJ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO89">
         <v>0</v>
@@ -20587,13 +20587,13 @@
         <v>0</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR89">
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AW89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX89">
         <v>1</v>
@@ -20620,10 +20620,10 @@
         <v>0</v>
       </c>
       <c r="BB89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD89">
         <v>0</v>
@@ -20635,19 +20635,19 @@
         <v>0</v>
       </c>
       <c r="BG89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH89">
         <v>0</v>
       </c>
       <c r="BI89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ89">
         <v>0</v>
       </c>
       <c r="BK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL89">
         <v>0</v>
@@ -20676,34 +20676,34 @@
     </row>
     <row r="90" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I90">
-        <v>2400</v>
+        <v>6352</v>
       </c>
       <c r="J90">
-        <v>2471</v>
+        <v>3926</v>
       </c>
       <c r="K90">
         <v>7</v>
@@ -20712,22 +20712,22 @@
         <v>0.5</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
         <v>2</v>
       </c>
       <c r="P90">
-        <v>21.16</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="Q90">
-        <v>0.32060606060606062</v>
+        <v>0.28803030303030308</v>
       </c>
       <c r="R90">
-        <v>0.41030303030303028</v>
+        <v>0.39401515151515148</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -20736,28 +20736,28 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="V90">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="W90">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="X90">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Y90">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Z90">
-        <v>91.5</v>
+        <v>61</v>
       </c>
       <c r="AA90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>1</v>
@@ -20769,13 +20769,13 @@
         <v>1</v>
       </c>
       <c r="AF90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI90">
         <v>1</v>
@@ -20787,10 +20787,10 @@
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN90">
         <v>1</v>
@@ -20820,13 +20820,13 @@
         <v>1</v>
       </c>
       <c r="AW90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX90">
         <v>1</v>
       </c>
       <c r="AY90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ90">
         <v>0</v>
@@ -20835,10 +20835,10 @@
         <v>0</v>
       </c>
       <c r="BB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD90">
         <v>0</v>
@@ -20891,58 +20891,58 @@
     </row>
     <row r="91" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H91" t="s">
         <v>84</v>
       </c>
       <c r="I91">
-        <v>6352</v>
+        <v>2509</v>
       </c>
       <c r="J91">
-        <v>3926</v>
+        <v>3443</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L91">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>19.010000000000002</v>
+        <v>21.44</v>
       </c>
       <c r="Q91">
-        <v>0.28803030303030308</v>
+        <v>0.32484848484848489</v>
       </c>
       <c r="R91">
-        <v>0.39401515151515148</v>
+        <v>0.30528138528138532</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -20951,64 +20951,64 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="V91">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="W91">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="X91">
         <v>78</v>
       </c>
       <c r="Y91">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="Z91">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="AA91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG91">
         <v>0</v>
       </c>
       <c r="AH91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI91">
         <v>1</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
         <v>0</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO91">
         <v>0</v>
@@ -21035,13 +21035,13 @@
         <v>1</v>
       </c>
       <c r="AW91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ91">
         <v>0</v>
@@ -21068,10 +21068,10 @@
         <v>0</v>
       </c>
       <c r="BH91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ91">
         <v>0</v>
@@ -21106,58 +21106,58 @@
     </row>
     <row r="92" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I92">
-        <v>2509</v>
+        <v>2800</v>
       </c>
       <c r="J92">
-        <v>3443</v>
+        <v>4655</v>
       </c>
       <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="M92">
         <v>4</v>
       </c>
-      <c r="L92">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
       <c r="N92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>21.44</v>
+        <v>19.91</v>
       </c>
       <c r="Q92">
-        <v>0.32484848484848489</v>
+        <v>0.30166666666666669</v>
       </c>
       <c r="R92">
-        <v>0.30528138528138532</v>
+        <v>0.32940476190476192</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -21166,28 +21166,28 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="V92">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="W92">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="X92">
         <v>78</v>
       </c>
       <c r="Y92">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="Z92">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AA92">
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -21196,25 +21196,25 @@
         <v>1</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG92">
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92">
         <v>0</v>
@@ -21262,10 +21262,10 @@
         <v>0</v>
       </c>
       <c r="BA92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC92">
         <v>0</v>
@@ -21280,13 +21280,13 @@
         <v>0</v>
       </c>
       <c r="BG92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH92">
         <v>1</v>
       </c>
       <c r="BI92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ92">
         <v>0</v>
@@ -21321,22 +21321,22 @@
     </row>
     <row r="93" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C93" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="G93" t="s">
         <v>74</v>
@@ -21345,34 +21345,34 @@
         <v>75</v>
       </c>
       <c r="I93">
-        <v>2800</v>
+        <v>1173</v>
       </c>
       <c r="J93">
-        <v>4655</v>
+        <v>5400</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L93">
-        <v>0.35714285714285721</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P93">
-        <v>19.91</v>
+        <v>19.68</v>
       </c>
       <c r="Q93">
-        <v>0.30166666666666669</v>
+        <v>0.29818181818181821</v>
       </c>
       <c r="R93">
-        <v>0.32940476190476192</v>
+        <v>0.29194805194805201</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -21381,40 +21381,40 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="V93">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="W93">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X93">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y93">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="Z93">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG93">
         <v>0</v>
@@ -21435,10 +21435,10 @@
         <v>0</v>
       </c>
       <c r="AM93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>1</v>
       </c>
       <c r="AX93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY93">
         <v>0</v>
@@ -21477,16 +21477,16 @@
         <v>0</v>
       </c>
       <c r="BA93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC93">
         <v>0</v>
       </c>
       <c r="BD93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE93">
         <v>1</v>
@@ -21507,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="BK93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL93">
         <v>0</v>
@@ -21522,7 +21522,7 @@
         <v>0</v>
       </c>
       <c r="BP93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ93">
         <v>0</v>
@@ -21536,58 +21536,58 @@
     </row>
     <row r="94" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C94" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H94" t="s">
         <v>75</v>
       </c>
       <c r="I94">
-        <v>1173</v>
+        <v>8788</v>
       </c>
       <c r="J94">
-        <v>5400</v>
+        <v>1304</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L94">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94">
         <v>2</v>
       </c>
       <c r="P94">
-        <v>19.68</v>
+        <v>16.91</v>
       </c>
       <c r="Q94">
-        <v>0.29818181818181821</v>
+        <v>0.25621212121212122</v>
       </c>
       <c r="R94">
-        <v>0.29194805194805201</v>
+        <v>0.34239177489177491</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -21596,22 +21596,22 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="V94">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="W94">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="X94">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Y94">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="Z94">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AA94">
         <v>2</v>
@@ -21620,19 +21620,19 @@
         <v>0</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD94">
         <v>0</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH94">
         <v>0</v>
@@ -21641,10 +21641,10 @@
         <v>0</v>
       </c>
       <c r="AJ94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>0</v>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -21677,7 +21677,7 @@
         <v>0</v>
       </c>
       <c r="AV94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW94">
         <v>1</v>
@@ -21695,13 +21695,13 @@
         <v>0</v>
       </c>
       <c r="BB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC94">
         <v>0</v>
       </c>
       <c r="BD94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE94">
         <v>1</v>
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="BH94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI94">
         <v>0</v>
@@ -21722,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="BK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL94">
         <v>0</v>
@@ -21737,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="BP94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ94">
         <v>0</v>
@@ -21751,16 +21751,16 @@
     </row>
     <row r="95" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -21772,37 +21772,37 @@
         <v>118</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="I95">
-        <v>8788</v>
+        <v>2434</v>
       </c>
       <c r="J95">
-        <v>1304</v>
+        <v>1454</v>
       </c>
       <c r="K95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L95">
-        <v>0.4285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>16.91</v>
+        <v>18.25</v>
       </c>
       <c r="Q95">
-        <v>0.25621212121212122</v>
+        <v>0.27651515151515149</v>
       </c>
       <c r="R95">
-        <v>0.34239177489177491</v>
+        <v>0.2811147186147186</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -21811,28 +21811,28 @@
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="V95">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="W95">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="X95">
         <v>90</v>
       </c>
       <c r="Y95">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="Z95">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA95">
         <v>2</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -21847,16 +21847,16 @@
         <v>1</v>
       </c>
       <c r="AG95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH95">
         <v>0</v>
       </c>
       <c r="AI95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -21865,10 +21865,10 @@
         <v>0</v>
       </c>
       <c r="AM95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -21883,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -21922,13 +21922,13 @@
         <v>1</v>
       </c>
       <c r="BF95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG95">
         <v>1</v>
       </c>
       <c r="BH95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI95">
         <v>0</v>
@@ -21966,13 +21966,13 @@
     </row>
     <row r="96" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C96" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -21981,76 +21981,76 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
         <v>118</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="I96">
-        <v>2434</v>
+        <v>1048</v>
       </c>
       <c r="J96">
-        <v>1454</v>
+        <v>4666</v>
       </c>
       <c r="K96">
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M96">
         <v>4</v>
       </c>
-      <c r="L96">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M96">
-        <v>3</v>
-      </c>
       <c r="N96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P96">
-        <v>18.25</v>
+        <v>12.1</v>
       </c>
       <c r="Q96">
-        <v>0.27651515151515149</v>
+        <v>0.1833333333333334</v>
       </c>
       <c r="R96">
-        <v>0.2811147186147186</v>
+        <v>0.44880952380952382</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="V96">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="W96">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="X96">
         <v>90</v>
       </c>
       <c r="Y96">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Z96">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="AA96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96">
         <v>0</v>
@@ -22062,16 +22062,16 @@
         <v>1</v>
       </c>
       <c r="AG96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI96">
         <v>1</v>
       </c>
       <c r="AJ96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -22083,10 +22083,10 @@
         <v>0</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP96">
         <v>0</v>
@@ -22104,16 +22104,16 @@
         <v>1</v>
       </c>
       <c r="AU96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW96">
         <v>1</v>
       </c>
       <c r="AX96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY96">
         <v>0</v>
@@ -22137,13 +22137,13 @@
         <v>1</v>
       </c>
       <c r="BF96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI96">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="BN96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO96">
         <v>0</v>
@@ -22181,124 +22181,124 @@
     </row>
     <row r="97" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I97">
-        <v>1048</v>
+        <v>2100</v>
       </c>
       <c r="J97">
-        <v>4666</v>
+        <v>3490</v>
       </c>
       <c r="K97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L97">
-        <v>0.7142857142857143</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>2</v>
       </c>
       <c r="P97">
-        <v>12.1</v>
+        <v>16.16</v>
       </c>
       <c r="Q97">
-        <v>0.1833333333333334</v>
+        <v>0.24484848484848479</v>
       </c>
       <c r="R97">
-        <v>0.44880952380952382</v>
+        <v>0.30099567099567098</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="V97">
         <v>170</v>
       </c>
       <c r="W97">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="X97">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Y97">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Z97">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI97">
         <v>1</v>
       </c>
       <c r="AJ97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97">
         <v>0</v>
       </c>
       <c r="AM97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO97">
         <v>1</v>
@@ -22319,13 +22319,13 @@
         <v>1</v>
       </c>
       <c r="AU97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV97">
         <v>1</v>
       </c>
       <c r="AW97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX97">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="BB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC97">
         <v>0</v>
@@ -22352,13 +22352,13 @@
         <v>1</v>
       </c>
       <c r="BF97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI97">
         <v>0</v>
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="BN97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO97">
         <v>0</v>
@@ -22396,13 +22396,13 @@
     </row>
     <row r="98" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -22411,43 +22411,43 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="G98" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I98">
-        <v>2100</v>
+        <v>1119</v>
       </c>
       <c r="J98">
-        <v>3490</v>
+        <v>1087</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>0.35714285714285721</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>2</v>
       </c>
       <c r="P98">
-        <v>16.16</v>
+        <v>9.83</v>
       </c>
       <c r="Q98">
-        <v>0.24484848484848479</v>
+        <v>0.1489393939393939</v>
       </c>
       <c r="R98">
-        <v>0.30099567099567098</v>
+        <v>0.21732683982683981</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -22456,22 +22456,22 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="V98">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="W98">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="X98">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y98">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="Z98">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AA98">
         <v>3</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -22522,13 +22522,13 @@
         <v>0</v>
       </c>
       <c r="AQ98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -22537,13 +22537,13 @@
         <v>0</v>
       </c>
       <c r="AV98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY98">
         <v>0</v>
@@ -22567,13 +22567,13 @@
         <v>1</v>
       </c>
       <c r="BF98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI98">
         <v>0</v>
@@ -22611,58 +22611,58 @@
     </row>
     <row r="99" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="G99" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I99">
-        <v>1119</v>
+        <v>2092</v>
       </c>
       <c r="J99">
-        <v>1087</v>
+        <v>5</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>9.83</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>0.1489393939393939</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>0.21732683982683981</v>
+        <v>0</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -22671,49 +22671,49 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="V99">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="W99">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="X99">
         <v>100</v>
       </c>
       <c r="Y99">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="Z99">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AA99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99">
         <v>1</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH99">
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -22722,28 +22722,28 @@
         <v>1</v>
       </c>
       <c r="AL99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM99">
         <v>1</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR99">
         <v>0</v>
       </c>
       <c r="AS99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="AV99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW99">
         <v>1</v>
       </c>
       <c r="AX99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY99">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="BB99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC99">
         <v>0</v>
@@ -22791,19 +22791,19 @@
         <v>0</v>
       </c>
       <c r="BI99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ99">
         <v>0</v>
       </c>
       <c r="BK99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL99">
         <v>0</v>
       </c>
       <c r="BM99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN99">
         <v>0</v>
@@ -22812,13 +22812,13 @@
         <v>0</v>
       </c>
       <c r="BP99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ99">
         <v>0</v>
       </c>
       <c r="BR99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS99">
         <v>0</v>
@@ -22907,49 +22907,49 @@
         <v>2</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH100">
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ100">
         <v>0</v>
       </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ100">
         <v>0</v>
@@ -22958,19 +22958,19 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU100">
         <v>0</v>
       </c>
       <c r="AV100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX100">
         <v>0</v>
@@ -22994,7 +22994,7 @@
         <v>0</v>
       </c>
       <c r="BE100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF100">
         <v>0</v>
@@ -23006,19 +23006,19 @@
         <v>0</v>
       </c>
       <c r="BI100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ100">
         <v>0</v>
       </c>
       <c r="BK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL100">
         <v>0</v>
       </c>
       <c r="BM100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN100">
         <v>0</v>
@@ -23027,230 +23027,15 @@
         <v>0</v>
       </c>
       <c r="BP100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ100">
         <v>0</v>
       </c>
       <c r="BR100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>97</v>
-      </c>
-      <c r="B101" t="s">
-        <v>244</v>
-      </c>
-      <c r="C101" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>91</v>
-      </c>
-      <c r="G101" t="s">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101">
-        <v>2092</v>
-      </c>
-      <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>1</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101" t="s">
-        <v>246</v>
-      </c>
-      <c r="V101">
-        <v>189</v>
-      </c>
-      <c r="W101">
-        <v>176</v>
-      </c>
-      <c r="X101">
-        <v>100</v>
-      </c>
-      <c r="Y101">
-        <v>465</v>
-      </c>
-      <c r="Z101">
-        <v>54</v>
-      </c>
-      <c r="AA101">
-        <v>2</v>
-      </c>
-      <c r="AB101">
-        <v>0</v>
-      </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-      <c r="AE101">
-        <v>0</v>
-      </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-      <c r="AI101">
-        <v>0</v>
-      </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
-      <c r="AK101">
-        <v>0</v>
-      </c>
-      <c r="AL101">
-        <v>0</v>
-      </c>
-      <c r="AM101">
-        <v>0</v>
-      </c>
-      <c r="AN101">
-        <v>0</v>
-      </c>
-      <c r="AO101">
-        <v>0</v>
-      </c>
-      <c r="AP101">
-        <v>0</v>
-      </c>
-      <c r="AQ101">
-        <v>0</v>
-      </c>
-      <c r="AR101">
-        <v>0</v>
-      </c>
-      <c r="AS101">
-        <v>0</v>
-      </c>
-      <c r="AT101">
-        <v>0</v>
-      </c>
-      <c r="AU101">
-        <v>0</v>
-      </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>0</v>
-      </c>
-      <c r="AX101">
-        <v>0</v>
-      </c>
-      <c r="AY101">
-        <v>0</v>
-      </c>
-      <c r="AZ101">
-        <v>0</v>
-      </c>
-      <c r="BA101">
-        <v>0</v>
-      </c>
-      <c r="BB101">
-        <v>0</v>
-      </c>
-      <c r="BC101">
-        <v>0</v>
-      </c>
-      <c r="BD101">
-        <v>0</v>
-      </c>
-      <c r="BE101">
-        <v>0</v>
-      </c>
-      <c r="BF101">
-        <v>0</v>
-      </c>
-      <c r="BG101">
-        <v>0</v>
-      </c>
-      <c r="BH101">
-        <v>0</v>
-      </c>
-      <c r="BI101">
-        <v>0</v>
-      </c>
-      <c r="BJ101">
-        <v>0</v>
-      </c>
-      <c r="BK101">
-        <v>0</v>
-      </c>
-      <c r="BL101">
-        <v>0</v>
-      </c>
-      <c r="BM101">
-        <v>0</v>
-      </c>
-      <c r="BN101">
-        <v>0</v>
-      </c>
-      <c r="BO101">
-        <v>0</v>
-      </c>
-      <c r="BP101">
-        <v>0</v>
-      </c>
-      <c r="BQ101">
-        <v>0</v>
-      </c>
-      <c r="BR101">
-        <v>0</v>
-      </c>
-      <c r="BS101">
         <v>0</v>
       </c>
     </row>

--- a/ONKUTFEL2/2020_hamminghez.xlsx
+++ b/ONKUTFEL2/2020_hamminghez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\ONKUTFEL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670EDFD-F6F5-45B0-ACD3-B25D9E929092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A6D59-3CFD-4552-8555-D43F38B07F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="374">
   <si>
     <t>...1</t>
   </si>
@@ -1531,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS100"/>
+  <dimension ref="A1:BS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22609,436 +22609,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>91</v>
-      </c>
-      <c r="G99" t="s">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s">
-        <v>80</v>
-      </c>
-      <c r="I99">
-        <v>2092</v>
-      </c>
-      <c r="J99">
-        <v>5</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>1</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99" t="s">
-        <v>246</v>
-      </c>
-      <c r="V99">
-        <v>189</v>
-      </c>
-      <c r="W99">
-        <v>176</v>
-      </c>
-      <c r="X99">
-        <v>100</v>
-      </c>
-      <c r="Y99">
-        <v>465</v>
-      </c>
-      <c r="Z99">
-        <v>54</v>
-      </c>
-      <c r="AA99">
-        <v>2</v>
-      </c>
-      <c r="AB99">
-        <v>1</v>
-      </c>
-      <c r="AC99">
-        <v>1</v>
-      </c>
-      <c r="AD99">
-        <v>1</v>
-      </c>
-      <c r="AE99">
-        <v>1</v>
-      </c>
-      <c r="AF99">
-        <v>1</v>
-      </c>
-      <c r="AG99">
-        <v>1</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-      <c r="AI99">
-        <v>1</v>
-      </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
-      <c r="AK99">
-        <v>1</v>
-      </c>
-      <c r="AL99">
-        <v>1</v>
-      </c>
-      <c r="AM99">
-        <v>1</v>
-      </c>
-      <c r="AN99">
-        <v>1</v>
-      </c>
-      <c r="AO99">
-        <v>1</v>
-      </c>
-      <c r="AP99">
-        <v>1</v>
-      </c>
-      <c r="AQ99">
-        <v>0</v>
-      </c>
-      <c r="AR99">
-        <v>0</v>
-      </c>
-      <c r="AS99">
-        <v>1</v>
-      </c>
-      <c r="AT99">
-        <v>1</v>
-      </c>
-      <c r="AU99">
-        <v>0</v>
-      </c>
-      <c r="AV99">
-        <v>1</v>
-      </c>
-      <c r="AW99">
-        <v>1</v>
-      </c>
-      <c r="AX99">
-        <v>0</v>
-      </c>
-      <c r="AY99">
-        <v>0</v>
-      </c>
-      <c r="AZ99">
-        <v>0</v>
-      </c>
-      <c r="BA99">
-        <v>0</v>
-      </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
-      <c r="BC99">
-        <v>0</v>
-      </c>
-      <c r="BD99">
-        <v>0</v>
-      </c>
-      <c r="BE99">
-        <v>1</v>
-      </c>
-      <c r="BF99">
-        <v>0</v>
-      </c>
-      <c r="BG99">
-        <v>0</v>
-      </c>
-      <c r="BH99">
-        <v>0</v>
-      </c>
-      <c r="BI99">
-        <v>1</v>
-      </c>
-      <c r="BJ99">
-        <v>0</v>
-      </c>
-      <c r="BK99">
-        <v>1</v>
-      </c>
-      <c r="BL99">
-        <v>0</v>
-      </c>
-      <c r="BM99">
-        <v>1</v>
-      </c>
-      <c r="BN99">
-        <v>0</v>
-      </c>
-      <c r="BO99">
-        <v>0</v>
-      </c>
-      <c r="BP99">
-        <v>1</v>
-      </c>
-      <c r="BQ99">
-        <v>0</v>
-      </c>
-      <c r="BR99">
-        <v>1</v>
-      </c>
-      <c r="BS99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>97</v>
-      </c>
-      <c r="B100" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>91</v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s">
-        <v>80</v>
-      </c>
-      <c r="I100">
-        <v>2092</v>
-      </c>
-      <c r="J100">
-        <v>5</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100" t="s">
-        <v>246</v>
-      </c>
-      <c r="V100">
-        <v>189</v>
-      </c>
-      <c r="W100">
-        <v>176</v>
-      </c>
-      <c r="X100">
-        <v>100</v>
-      </c>
-      <c r="Y100">
-        <v>465</v>
-      </c>
-      <c r="Z100">
-        <v>54</v>
-      </c>
-      <c r="AA100">
-        <v>2</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>0</v>
-      </c>
-      <c r="AO100">
-        <v>0</v>
-      </c>
-      <c r="AP100">
-        <v>0</v>
-      </c>
-      <c r="AQ100">
-        <v>0</v>
-      </c>
-      <c r="AR100">
-        <v>0</v>
-      </c>
-      <c r="AS100">
-        <v>0</v>
-      </c>
-      <c r="AT100">
-        <v>0</v>
-      </c>
-      <c r="AU100">
-        <v>0</v>
-      </c>
-      <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AW100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
-      </c>
-      <c r="AZ100">
-        <v>0</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>0</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
-      <c r="BD100">
-        <v>0</v>
-      </c>
-      <c r="BE100">
-        <v>0</v>
-      </c>
-      <c r="BF100">
-        <v>0</v>
-      </c>
-      <c r="BG100">
-        <v>0</v>
-      </c>
-      <c r="BH100">
-        <v>0</v>
-      </c>
-      <c r="BI100">
-        <v>0</v>
-      </c>
-      <c r="BJ100">
-        <v>0</v>
-      </c>
-      <c r="BK100">
-        <v>0</v>
-      </c>
-      <c r="BL100">
-        <v>0</v>
-      </c>
-      <c r="BM100">
-        <v>0</v>
-      </c>
-      <c r="BN100">
-        <v>0</v>
-      </c>
-      <c r="BO100">
-        <v>0</v>
-      </c>
-      <c r="BP100">
-        <v>0</v>
-      </c>
-      <c r="BQ100">
-        <v>0</v>
-      </c>
-      <c r="BR100">
-        <v>0</v>
-      </c>
-      <c r="BS100">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
